--- a/data/trans_orig/LAWTONB_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09D6C509-2512-4220-9610-20BA5A202A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A7A0BA5-E1AF-4B0C-9FA3-718D1D6EBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AC2846BD-8859-4CDC-B455-2947355487D9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA71A2A8-D3BB-4D4D-9F09-B5DA85A1A9E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>26,11%</t>
@@ -94,10 +94,10 @@
     <t>25,34%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>75,5%</t>
   </si>
   <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>73,89%</t>
@@ -124,10 +124,10 @@
     <t>74,66%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,1339 +139,1315 @@
     <t>24,42%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
   </si>
   <si>
     <t>23,2%</t>
   </si>
   <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>62,68%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>84,42%</t>
   </si>
   <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,46%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>12,43%</t>
   </si>
   <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>87,57%</t>
   </si>
   <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>39,31%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
     <t>73,75%</t>
   </si>
   <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6681535-AF5E-476F-BA33-7228F207FBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E349EF-E2AE-4E66-8EB1-6D011B83EC3C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2788,7 +2764,7 @@
         <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -2797,13 +2773,13 @@
         <v>27954</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2812,13 +2788,13 @@
         <v>45923</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,13 +2809,13 @@
         <v>29227</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -2848,13 +2824,13 @@
         <v>42355</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -2863,13 +2839,13 @@
         <v>71583</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,7 +2901,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2937,13 +2913,13 @@
         <v>19551</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -2952,13 +2928,13 @@
         <v>39174</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2967,13 +2943,13 @@
         <v>58725</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2964,13 @@
         <v>86377</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -3003,13 +2979,13 @@
         <v>77947</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>167</v>
@@ -3018,13 +2994,13 @@
         <v>164324</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,7 +3056,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3092,13 +3068,13 @@
         <v>35595</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3107,13 +3083,13 @@
         <v>48518</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -3122,13 +3098,13 @@
         <v>84113</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3119,13 @@
         <v>76298</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3158,13 +3134,13 @@
         <v>104707</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
@@ -3173,13 +3149,13 @@
         <v>181005</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3223,13 @@
         <v>132209</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>217</v>
@@ -3262,13 +3238,13 @@
         <v>232744</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -3277,13 +3253,13 @@
         <v>364953</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3274,13 @@
         <v>370257</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -3313,13 +3289,13 @@
         <v>444098</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>828</v>
@@ -3328,13 +3304,13 @@
         <v>814355</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,7 +3366,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D584B20E-074E-47B8-9FA7-9DE5A4707FD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CB055-B372-4954-9BF4-5B06B1581A46}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3407,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3536,39 +3512,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,39 +3557,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,39 +3602,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3675,13 +3651,13 @@
         <v>23518</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3690,13 +3666,13 @@
         <v>43483</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -3705,13 +3681,13 @@
         <v>67001</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3726,13 +3702,13 @@
         <v>55685</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3741,13 +3717,13 @@
         <v>58610</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -3756,13 +3732,13 @@
         <v>114295</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3830,13 +3806,13 @@
         <v>14399</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3845,13 +3821,13 @@
         <v>26492</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3860,13 +3836,13 @@
         <v>40891</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3881,13 +3857,13 @@
         <v>41343</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -3896,13 +3872,13 @@
         <v>53476</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -3911,13 +3887,13 @@
         <v>94819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +3961,13 @@
         <v>34831</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -4000,13 +3976,13 @@
         <v>70910</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -4015,13 +3991,13 @@
         <v>105741</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4036,13 +4012,13 @@
         <v>73477</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -4051,13 +4027,13 @@
         <v>63558</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -4066,13 +4042,13 @@
         <v>137036</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4140,13 +4116,13 @@
         <v>8975</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4155,13 +4131,13 @@
         <v>25261</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4170,13 +4146,13 @@
         <v>34236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4167,13 @@
         <v>22637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4206,13 +4182,13 @@
         <v>24594</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4221,13 +4197,13 @@
         <v>47231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4271,13 @@
         <v>18082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4310,13 +4286,13 @@
         <v>21283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4325,13 +4301,13 @@
         <v>39365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,13 +4322,13 @@
         <v>33674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -4361,13 +4337,13 @@
         <v>48929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -4376,13 +4352,13 @@
         <v>82603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4414,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4450,13 +4426,13 @@
         <v>29326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -4465,13 +4441,13 @@
         <v>49367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4480,13 +4456,13 @@
         <v>78693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4477,13 @@
         <v>82937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4516,13 +4492,13 @@
         <v>92595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -4531,13 +4507,13 @@
         <v>175533</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4569,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4605,13 +4581,13 @@
         <v>20825</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4620,13 +4596,13 @@
         <v>49823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -4635,13 +4611,13 @@
         <v>70648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4632,13 @@
         <v>99927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -4671,13 +4647,13 @@
         <v>114594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -4686,13 +4662,13 @@
         <v>214521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4736,13 @@
         <v>149957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="H28" s="7">
         <v>263</v>
@@ -4775,13 +4751,13 @@
         <v>286619</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -4790,13 +4766,13 @@
         <v>436575</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4787,13 @@
         <v>409680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>431</v>
@@ -4826,13 +4802,13 @@
         <v>456356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="M29" s="7">
         <v>802</v>
@@ -4841,13 +4817,13 @@
         <v>866037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4879,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -4927,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19078AAA-332D-4A59-9573-079622831C5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AA35BA-2FE8-454D-B768-2FC3A55571F0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4944,7 +4920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5051,13 +5027,13 @@
         <v>8998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5066,13 +5042,13 @@
         <v>25737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5081,13 +5057,13 @@
         <v>34736</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5078,13 @@
         <v>29898</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -5117,13 +5093,13 @@
         <v>23654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -5132,13 +5108,13 @@
         <v>53551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5182,13 @@
         <v>13599</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5221,13 +5197,13 @@
         <v>39038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5236,13 +5212,13 @@
         <v>52637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5233,13 @@
         <v>73696</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5272,13 +5248,13 @@
         <v>76190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>140</v>
@@ -5287,13 +5263,13 @@
         <v>149886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5361,13 +5337,13 @@
         <v>14736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5376,13 +5352,13 @@
         <v>17328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5391,13 +5367,13 @@
         <v>32064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5388,13 @@
         <v>48810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5427,13 +5403,13 @@
         <v>62569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -5442,13 +5418,13 @@
         <v>111379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5492,13 @@
         <v>14928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5531,13 +5507,13 @@
         <v>29381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -5546,13 +5522,13 @@
         <v>44308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5543,13 @@
         <v>49784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5582,13 +5558,13 @@
         <v>62193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5597,13 +5573,13 @@
         <v>111977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5647,13 @@
         <v>4932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5686,13 +5662,13 @@
         <v>24160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>135</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5701,13 +5677,13 @@
         <v>29091</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5698,13 @@
         <v>37148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5737,13 +5713,13 @@
         <v>26372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>143</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5752,13 +5728,13 @@
         <v>63521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5826,13 +5802,13 @@
         <v>14935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5841,13 +5817,13 @@
         <v>23389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5856,13 +5832,13 @@
         <v>38324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5877,13 +5853,13 @@
         <v>33511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5892,13 +5868,13 @@
         <v>43999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -5907,13 +5883,13 @@
         <v>77510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,7 +5945,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5984,10 +5960,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>429</v>
+        <v>204</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5996,13 +5972,13 @@
         <v>61722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -6014,10 +5990,10 @@
         <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,10 +6011,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>435</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>73</v>
@@ -6047,13 +6023,13 @@
         <v>85903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>154</v>
@@ -6065,10 +6041,10 @@
         <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,7 +6100,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6136,13 +6112,13 @@
         <v>24736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -6151,13 +6127,13 @@
         <v>56751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6166,13 +6142,13 @@
         <v>81487</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6187,13 +6163,13 @@
         <v>109432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -6202,13 +6178,13 @@
         <v>119546</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>214</v>
@@ -6217,13 +6193,13 @@
         <v>228978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,13 +6267,13 @@
         <v>124343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>223</v>
@@ -6306,13 +6282,13 @@
         <v>277505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>362</v>
@@ -6321,13 +6297,13 @@
         <v>401848</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6342,13 +6318,13 @@
         <v>466985</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>432</v>
@@ -6357,13 +6333,13 @@
         <v>500426</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>920</v>
@@ -6372,13 +6348,13 @@
         <v>967411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6434,7 +6410,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/LAWTONB_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A7A0BA5-E1AF-4B0C-9FA3-718D1D6EBE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B017CFC6-6D55-4579-9681-B9544BE1AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AA71A2A8-D3BB-4D4D-9F09-B5DA85A1A9E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A20A02EB-A97F-4E37-8C6A-B94B9BE92702}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="466">
   <si>
     <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>75,5%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,1315 +139,1303 @@
     <t>24,42%</t>
   </si>
   <si>
-    <t>14,6%</t>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>61,65%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
   </si>
   <si>
     <t>32,03%</t>
   </si>
   <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>67,97%</t>
   </si>
   <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>63,98%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>73,21%</t>
+    <t>72,95%</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E349EF-E2AE-4E66-8EB1-6D011B83EC3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54008C25-B3E8-41C3-9AA8-1182B543E63E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2517,10 +2505,10 @@
         <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -2529,13 +2517,13 @@
         <v>81566</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2579,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2591,13 @@
         <v>8639</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2618,13 +2606,13 @@
         <v>15618</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2633,13 +2621,13 @@
         <v>24257</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2642,13 @@
         <v>20708</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2669,13 +2657,13 @@
         <v>25628</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2684,13 +2672,13 @@
         <v>46336</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,7 +2734,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2758,13 +2746,13 @@
         <v>17969</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -2773,13 +2761,13 @@
         <v>27954</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2788,13 +2776,13 @@
         <v>45923</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,10 +2797,10 @@
         <v>29227</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>117</v>
@@ -3390,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304CB055-B372-4954-9BF4-5B06B1581A46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF63E91-B41E-4752-8081-672477F20DBA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3842,7 +3830,7 @@
         <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3845,13 @@
         <v>41343</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -3872,13 +3860,13 @@
         <v>53476</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -3887,13 +3875,13 @@
         <v>94819</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3949,13 @@
         <v>34831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3976,13 +3964,13 @@
         <v>70910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3991,13 +3979,13 @@
         <v>105741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4000,13 @@
         <v>73477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -4027,13 +4015,13 @@
         <v>63558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -4042,13 +4030,13 @@
         <v>137036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,7 +4092,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4104,13 @@
         <v>8975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4131,13 +4119,13 @@
         <v>25261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4146,13 +4134,13 @@
         <v>34236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,13 +4155,13 @@
         <v>22637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4182,13 +4170,13 @@
         <v>24594</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4197,13 +4185,13 @@
         <v>47231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>177</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,7 +4247,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4271,13 +4259,13 @@
         <v>18082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4286,13 +4274,13 @@
         <v>21283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4301,13 +4289,13 @@
         <v>39365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4310,13 @@
         <v>33674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -4337,13 +4325,13 @@
         <v>48929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>264</v>
+        <v>22</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -4352,13 +4340,13 @@
         <v>82603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,13 +4414,13 @@
         <v>29326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -4441,13 +4429,13 @@
         <v>49367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4459,10 +4447,10 @@
         <v>168</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4477,13 +4465,13 @@
         <v>82937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4492,13 +4480,13 @@
         <v>92595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -4510,10 +4498,10 @@
         <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,13 +4569,13 @@
         <v>20825</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4596,13 +4584,13 @@
         <v>49823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -4611,13 +4599,13 @@
         <v>70648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4632,13 +4620,13 @@
         <v>99927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -4647,13 +4635,13 @@
         <v>114594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -4662,13 +4650,13 @@
         <v>214521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,13 +4724,13 @@
         <v>149957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>263</v>
@@ -4751,13 +4739,13 @@
         <v>286619</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -4766,13 +4754,13 @@
         <v>436575</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4787,13 +4775,13 @@
         <v>409680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>431</v>
@@ -4802,13 +4790,13 @@
         <v>456356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>802</v>
@@ -4817,13 +4805,13 @@
         <v>866037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AA35BA-2FE8-454D-B768-2FC3A55571F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4DB3B1-3EFE-4C40-8103-7483669C4459}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4920,7 +4908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5027,13 +5015,13 @@
         <v>8998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5042,28 +5030,28 @@
         <v>25737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>188</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>34736</v>
+        <v>34735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,13 +5066,13 @@
         <v>29898</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -5093,13 +5081,13 @@
         <v>23654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>196</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -5108,13 +5096,13 @@
         <v>53551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,7 +5144,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88287</v>
+        <v>88286</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5182,13 +5170,13 @@
         <v>13599</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5197,13 +5185,13 @@
         <v>39038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5212,13 +5200,13 @@
         <v>52637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5233,13 +5221,13 @@
         <v>73696</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5248,13 +5236,13 @@
         <v>76190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>140</v>
@@ -5263,13 +5251,13 @@
         <v>149886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5325,13 @@
         <v>14736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5352,13 +5340,13 @@
         <v>17328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5367,13 +5355,13 @@
         <v>32064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5376,13 @@
         <v>48810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5403,13 +5391,13 @@
         <v>62569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -5418,13 +5406,13 @@
         <v>111379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5480,13 @@
         <v>14928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5507,13 +5495,13 @@
         <v>29381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -5522,13 +5510,13 @@
         <v>44308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5531,13 @@
         <v>49784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5558,13 +5546,13 @@
         <v>62193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5573,13 +5561,13 @@
         <v>111977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,7 +5623,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5647,13 +5635,13 @@
         <v>4932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5662,13 +5650,13 @@
         <v>24160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5677,13 +5665,13 @@
         <v>29091</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +5686,13 @@
         <v>37148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5713,13 +5701,13 @@
         <v>26372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5728,13 +5716,13 @@
         <v>63521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,7 +5778,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5802,13 +5790,13 @@
         <v>14935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5817,13 +5805,13 @@
         <v>23389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5832,13 +5820,13 @@
         <v>38324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +5841,13 @@
         <v>33511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5868,13 +5856,13 @@
         <v>43999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -5883,13 +5871,13 @@
         <v>77510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,10 +5948,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>204</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5972,13 +5960,13 @@
         <v>61722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -5990,10 +5978,10 @@
         <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,10 +5999,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>213</v>
+        <v>424</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H23" s="7">
         <v>73</v>
@@ -6023,13 +6011,13 @@
         <v>85903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>154</v>
@@ -6041,10 +6029,10 @@
         <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,13 +6100,13 @@
         <v>24736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -6127,13 +6115,13 @@
         <v>56751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6142,13 +6130,13 @@
         <v>81487</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,13 +6151,13 @@
         <v>109432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -6178,13 +6166,13 @@
         <v>119546</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>214</v>
@@ -6193,13 +6181,13 @@
         <v>228978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6267,13 +6255,13 @@
         <v>124343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H28" s="7">
         <v>223</v>
@@ -6282,13 +6270,13 @@
         <v>277505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M28" s="7">
         <v>362</v>
@@ -6297,13 +6285,13 @@
         <v>401848</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,13 +6306,13 @@
         <v>466985</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H29" s="7">
         <v>432</v>
@@ -6333,13 +6321,13 @@
         <v>500426</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>920</v>
@@ -6348,13 +6336,13 @@
         <v>967411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/LAWTONB_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/LAWTONB_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B017CFC6-6D55-4579-9681-B9544BE1AEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7E02807-42AD-4B26-9ACB-CE1C3206B77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A20A02EB-A97F-4E37-8C6A-B94B9BE92702}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{088CDAE0-FB3B-4FA9-B3B1-1759A3132B15}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="466">
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2007 (Tasa respuesta: 18,18%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="478">
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -76,28 +76,28 @@
     <t>24,5%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>25,34%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>75,5%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>73,89%</t>
   </si>
   <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>74,66%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>24,42%</t>
   </si>
   <si>
-    <t>14,73%</t>
+    <t>14,78%</t>
   </si>
   <si>
     <t>36,59%</t>
@@ -148,16 +148,16 @@
     <t>23,2%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
   </si>
   <si>
     <t>23,7%</t>
   </si>
   <si>
-    <t>17,4%</t>
+    <t>17,62%</t>
   </si>
   <si>
     <t>30,86%</t>
@@ -169,16 +169,16 @@
     <t>63,41%</t>
   </si>
   <si>
-    <t>85,27%</t>
+    <t>85,22%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>76,3%</t>
@@ -187,7 +187,7 @@
     <t>69,14%</t>
   </si>
   <si>
-    <t>82,6%</t>
+    <t>82,38%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -196,55 +196,55 @@
     <t>20,45%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>34,33%</t>
   </si>
   <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>57,2%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>65,67%</t>
   </si>
   <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -253,49 +253,55 @@
     <t>27,37%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
   </si>
   <si>
     <t>72,63%</t>
   </si>
   <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>55,88%</t>
   </si>
   <si>
-    <t>66,71%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>63,02%</t>
   </si>
   <si>
-    <t>70,99%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -304,1138 +310,1168 @@
     <t>29,44%</t>
   </si>
   <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
   </si>
   <si>
     <t>37,86%</t>
   </si>
   <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>39,31%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
     <t>25,03%</t>
   </si>
   <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
   </si>
   <si>
     <t>74,97%</t>
   </si>
   <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>Población con algún grado de dependencia funcional para actividades instrumentales de la vida diaria (Lawton y Brody) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
   </si>
   <si>
     <t>24,99%</t>
   </si>
   <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
   </si>
   <si>
     <t>75,01%</t>
   </si>
   <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>Población con dependencia (Lawton y Brody) ediciones 2007,2012,2014 en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
     <t>73,75%</t>
   </si>
   <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>35,67%</t>
   </si>
   <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>78,97%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
   </si>
   <si>
     <t>64,33%</t>
   </si>
   <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
   </si>
 </sst>
 </file>
@@ -1847,7 +1883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54008C25-B3E8-41C3-9AA8-1182B543E63E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF016838-7DBC-4C39-BDC9-2FFB16A83420}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2505,10 +2541,10 @@
         <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>89</v>
@@ -2517,13 +2553,13 @@
         <v>81566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,7 +2615,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2591,13 +2627,13 @@
         <v>8639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -2606,13 +2642,13 @@
         <v>15618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>26</v>
@@ -2621,13 +2657,13 @@
         <v>24257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2678,13 @@
         <v>20708</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -2657,13 +2693,13 @@
         <v>25628</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2672,13 +2708,13 @@
         <v>46336</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2770,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2746,13 +2782,13 @@
         <v>17969</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -2761,13 +2797,13 @@
         <v>27954</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -2776,13 +2812,13 @@
         <v>45923</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +2833,13 @@
         <v>29227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -2812,13 +2848,13 @@
         <v>42355</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -2827,13 +2863,13 @@
         <v>71583</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,7 +2925,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2901,13 +2937,13 @@
         <v>19551</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>37</v>
@@ -2916,13 +2952,13 @@
         <v>39174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -2931,13 +2967,13 @@
         <v>58725</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2988,13 @@
         <v>86377</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>80</v>
@@ -2967,13 +3003,13 @@
         <v>77947</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>167</v>
@@ -2982,13 +3018,13 @@
         <v>164324</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,7 +3080,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3056,13 +3092,13 @@
         <v>35595</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -3071,13 +3107,13 @@
         <v>48518</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>80</v>
@@ -3086,13 +3122,13 @@
         <v>84113</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3143,13 @@
         <v>76298</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>101</v>
@@ -3122,13 +3158,13 @@
         <v>104707</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>180</v>
@@ -3137,13 +3173,13 @@
         <v>181005</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3247,13 @@
         <v>132209</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>217</v>
@@ -3226,13 +3262,13 @@
         <v>232744</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>356</v>
@@ -3241,13 +3277,13 @@
         <v>364953</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,13 +3298,13 @@
         <v>370257</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>444</v>
@@ -3277,13 +3313,13 @@
         <v>444098</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>828</v>
@@ -3292,13 +3328,13 @@
         <v>814355</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3390,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3378,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FF63E91-B41E-4752-8081-672477F20DBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC44DF1A-C852-4429-8ECE-6F41A9866A57}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3395,7 +3431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3500,39 +3536,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,39 +3581,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3590,39 +3626,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3675,13 @@
         <v>23518</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>39</v>
@@ -3654,13 +3690,13 @@
         <v>43483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>57</v>
@@ -3669,13 +3705,13 @@
         <v>67001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3726,13 @@
         <v>55685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -3705,13 +3741,13 @@
         <v>58610</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>105</v>
@@ -3720,13 +3756,13 @@
         <v>114295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3830,13 @@
         <v>14399</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3809,13 +3845,13 @@
         <v>26492</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -3824,13 +3860,13 @@
         <v>40891</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>112</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3881,13 @@
         <v>41343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>50</v>
@@ -3860,13 +3896,13 @@
         <v>53476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
@@ -3875,13 +3911,13 @@
         <v>94819</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,13 +3985,13 @@
         <v>34831</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>107</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3964,13 +4000,13 @@
         <v>70910</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>101</v>
@@ -3979,13 +4015,13 @@
         <v>105741</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +4036,13 @@
         <v>73477</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>117</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>62</v>
@@ -4015,13 +4051,13 @@
         <v>63558</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>126</v>
@@ -4030,13 +4066,13 @@
         <v>137036</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,7 +4128,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4104,13 +4140,13 @@
         <v>8975</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4119,13 +4155,13 @@
         <v>25261</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -4134,13 +4170,13 @@
         <v>34236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,13 +4191,13 @@
         <v>22637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -4170,13 +4206,13 @@
         <v>24594</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>44</v>
@@ -4185,13 +4221,13 @@
         <v>47231</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,7 +4283,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4259,13 +4295,13 @@
         <v>18082</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -4274,13 +4310,13 @@
         <v>21283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>13</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -4289,13 +4325,13 @@
         <v>39365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,13 +4346,13 @@
         <v>33674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>49</v>
@@ -4325,13 +4361,13 @@
         <v>48929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -4340,13 +4376,13 @@
         <v>82603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,7 +4438,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4414,13 +4450,13 @@
         <v>29326</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>43</v>
@@ -4429,13 +4465,13 @@
         <v>49367</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>69</v>
@@ -4444,13 +4480,13 @@
         <v>78693</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4501,13 @@
         <v>82937</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="H23" s="7">
         <v>86</v>
@@ -4480,13 +4516,13 @@
         <v>92595</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="M23" s="7">
         <v>160</v>
@@ -4495,13 +4531,13 @@
         <v>175533</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,7 +4593,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4569,13 +4605,13 @@
         <v>20825</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>45</v>
@@ -4584,13 +4620,13 @@
         <v>49823</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M25" s="7">
         <v>62</v>
@@ -4599,13 +4635,13 @@
         <v>70648</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4656,13 @@
         <v>99927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="H26" s="7">
         <v>106</v>
@@ -4635,13 +4671,13 @@
         <v>114594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>195</v>
@@ -4650,13 +4686,13 @@
         <v>214521</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4724,13 +4760,13 @@
         <v>149957</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>263</v>
@@ -4739,13 +4775,13 @@
         <v>286619</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -4754,13 +4790,13 @@
         <v>436575</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4811,13 @@
         <v>409680</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>431</v>
@@ -4790,13 +4826,13 @@
         <v>456356</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>802</v>
@@ -4805,13 +4841,13 @@
         <v>866037</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>48</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,7 +4903,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4DB3B1-3EFE-4C40-8103-7483669C4459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8BA652-C21F-410A-91B3-E964C270B928}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4908,7 +4944,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5015,13 +5051,13 @@
         <v>8998</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5030,28 +5066,28 @@
         <v>25737</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
       </c>
       <c r="N4" s="7">
-        <v>34735</v>
+        <v>34736</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5102,13 @@
         <v>29898</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -5081,13 +5117,13 @@
         <v>23654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>196</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>53</v>
@@ -5096,13 +5132,13 @@
         <v>53551</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,7 +5180,7 @@
         <v>85</v>
       </c>
       <c r="N6" s="7">
-        <v>88286</v>
+        <v>88287</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5170,13 +5206,13 @@
         <v>13599</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="H7" s="7">
         <v>30</v>
@@ -5185,13 +5221,13 @@
         <v>39038</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -5200,13 +5236,13 @@
         <v>52637</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5257,13 @@
         <v>73696</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -5236,13 +5272,13 @@
         <v>76190</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>140</v>
@@ -5251,13 +5287,13 @@
         <v>149886</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5361,13 @@
         <v>14736</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -5340,13 +5376,13 @@
         <v>17328</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>32</v>
@@ -5355,13 +5391,13 @@
         <v>32064</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5412,13 @@
         <v>48810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>55</v>
@@ -5391,13 +5427,13 @@
         <v>62569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>109</v>
@@ -5406,13 +5442,13 @@
         <v>111379</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5516,13 @@
         <v>14928</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5495,13 +5531,13 @@
         <v>29381</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>41</v>
@@ -5510,13 +5546,13 @@
         <v>44308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5567,13 @@
         <v>49784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -5546,13 +5582,13 @@
         <v>62193</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M14" s="7">
         <v>106</v>
@@ -5561,13 +5597,13 @@
         <v>111977</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,7 +5659,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5635,13 +5671,13 @@
         <v>4932</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H16" s="7">
         <v>21</v>
@@ -5650,13 +5686,13 @@
         <v>24160</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>135</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5665,13 +5701,13 @@
         <v>29091</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5722,13 @@
         <v>37148</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5701,13 +5737,13 @@
         <v>26372</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
         <v>66</v>
@@ -5716,13 +5752,13 @@
         <v>63521</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +5814,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5790,13 +5826,13 @@
         <v>14935</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -5805,13 +5841,13 @@
         <v>23389</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -5820,13 +5856,13 @@
         <v>38324</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,13 +5877,13 @@
         <v>33511</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5856,13 +5892,13 @@
         <v>43999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>78</v>
@@ -5871,13 +5907,13 @@
         <v>77510</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +5969,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5948,10 +5984,10 @@
         <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="H22" s="7">
         <v>52</v>
@@ -5960,13 +5996,13 @@
         <v>61722</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -5978,10 +6014,10 @@
         <v>57</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,10 +6035,10 @@
         <v>21</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="H23" s="7">
         <v>73</v>
@@ -6011,13 +6047,13 @@
         <v>85903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="M23" s="7">
         <v>154</v>
@@ -6029,10 +6065,10 @@
         <v>66</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,7 +6124,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6100,13 +6136,13 @@
         <v>24736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -6115,13 +6151,13 @@
         <v>56751</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>69</v>
@@ -6130,13 +6166,13 @@
         <v>81487</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6187,13 @@
         <v>109432</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H26" s="7">
         <v>99</v>
@@ -6166,13 +6202,13 @@
         <v>119546</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>214</v>
@@ -6181,13 +6217,13 @@
         <v>228978</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6291,13 @@
         <v>124343</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>223</v>
@@ -6270,13 +6306,13 @@
         <v>277505</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>362</v>
@@ -6285,13 +6321,13 @@
         <v>401848</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6342,13 @@
         <v>466985</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>432</v>
@@ -6321,13 +6357,13 @@
         <v>500426</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>920</v>
@@ -6336,13 +6372,13 @@
         <v>967411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,7 +6434,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
